--- a/laravel/storage/archivos/informantes.xlsx
+++ b/laravel/storage/archivos/informantes.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="informantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="684">
   <si>
     <t>Ch60_8</t>
   </si>
@@ -2060,13 +2061,19 @@
   </si>
   <si>
     <t>provenienciadelconyuge</t>
+  </si>
+  <si>
+    <t>idcampsem</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2210,8 +2217,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2391,8 +2411,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2507,8 +2533,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2551,12 +2592,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2587,6 +2635,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2890,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL132"/>
+  <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2941,6 +2990,9 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>670</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -3006,6 +3058,9 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="N2" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
@@ -3047,6 +3102,9 @@
       <c r="M3">
         <v>0</v>
       </c>
+      <c r="N3" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
@@ -3088,6 +3146,9 @@
       <c r="M4">
         <v>0</v>
       </c>
+      <c r="N4" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
@@ -3129,34 +3190,37 @@
       <c r="M5">
         <v>0</v>
       </c>
+      <c r="N5" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3170,107 +3234,116 @@
       <c r="M6">
         <v>0</v>
       </c>
+      <c r="N6" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
       </c>
       <c r="M7">
         <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
       </c>
       <c r="M8">
         <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -3279,45 +3352,48 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -3334,37 +3410,40 @@
       <c r="M10">
         <v>0</v>
       </c>
+      <c r="N10" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3374,64 +3453,70 @@
       </c>
       <c r="M11">
         <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
       </c>
       <c r="M12">
         <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -3440,10 +3525,10 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3456,23 +3541,26 @@
       </c>
       <c r="M13">
         <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -3481,13 +3569,13 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3497,32 +3585,35 @@
       </c>
       <c r="M14">
         <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
         <v>60</v>
@@ -3539,22 +3630,25 @@
       <c r="M15">
         <v>0</v>
       </c>
+      <c r="N15" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -3563,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
         <v>60</v>
@@ -3580,22 +3674,25 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -3607,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3621,34 +3718,37 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3662,34 +3762,37 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3703,22 +3806,25 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -3730,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3741,34 +3847,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -3785,31 +3894,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
@@ -3826,31 +3938,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>95</v>
       </c>
       <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
         <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
       </c>
       <c r="I23" t="s">
         <v>27</v>
@@ -3864,37 +3979,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>95</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3908,72 +4026,78 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>95</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F25">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>95</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
         <v>27</v>
@@ -3990,34 +4114,37 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>115</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4031,72 +4158,78 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -4113,34 +4246,37 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s">
-        <v>39</v>
+        <v>127</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4154,72 +4290,78 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" t="s">
-        <v>142</v>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -4233,37 +4375,40 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F33">
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4274,78 +4419,84 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" t="s">
-        <v>133</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
+      <c r="K34" t="s">
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
-      </c>
-      <c r="M34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F35">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4356,75 +4507,81 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" t="s">
+        <v>147</v>
+      </c>
+      <c r="N35" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
       </c>
       <c r="H36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
         <v>133</v>
-      </c>
-      <c r="I36" t="s">
-        <v>167</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -4435,40 +4592,43 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="L37" t="s">
+        <v>156</v>
+      </c>
+      <c r="M37" t="s">
+        <v>157</v>
+      </c>
+      <c r="N37" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4482,34 +4642,37 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="F39">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4523,34 +4686,37 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="F40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
       </c>
-      <c r="H40" t="s">
-        <v>182</v>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4564,37 +4730,40 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J41" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4605,22 +4774,25 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F42">
         <v>22</v>
@@ -4629,10 +4801,10 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4646,34 +4818,37 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="F43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4684,78 +4859,84 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>202</v>
-      </c>
-      <c r="L44" t="s">
-        <v>203</v>
+        <v>60</v>
+      </c>
+      <c r="J44" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4769,145 +4950,157 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>195</v>
+      </c>
+      <c r="N46" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>202</v>
+      </c>
+      <c r="L47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" t="s">
         <v>60</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>216</v>
-      </c>
-      <c r="L47" t="s">
-        <v>217</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" t="s">
-        <v>220</v>
-      </c>
-      <c r="F48">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" t="s">
-        <v>201</v>
-      </c>
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" t="s">
-        <v>216</v>
-      </c>
-      <c r="L48" t="s">
-        <v>217</v>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -4916,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
         <v>60</v>
@@ -4933,113 +5126,122 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="I50" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
+      <c r="K50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L50" t="s">
+        <v>217</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C51">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" t="s">
+        <v>201</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>216</v>
+      </c>
+      <c r="L51" t="s">
+        <v>217</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52">
         <v>30</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>4</v>
       </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="I52" t="s">
         <v>60</v>
@@ -5056,34 +5258,37 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F53">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I53" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5091,40 +5296,43 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53" t="s">
-        <v>243</v>
+      <c r="L53">
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
         <v>232</v>
       </c>
       <c r="F54">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5138,31 +5346,34 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I55" t="s">
         <v>60</v>
@@ -5179,31 +5390,34 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F56">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I56" t="s">
         <v>201</v>
@@ -5214,31 +5428,34 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
-        <v>0</v>
+      <c r="L56" t="s">
+        <v>243</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F57">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -5247,48 +5464,51 @@
         <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57" t="s">
-        <v>258</v>
-      </c>
-      <c r="L57" t="s">
-        <v>259</v>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F58">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5302,31 +5522,34 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="I59" t="s">
         <v>201</v>
@@ -5343,81 +5566,87 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
+      <c r="K60" t="s">
+        <v>258</v>
+      </c>
+      <c r="L60" t="s">
+        <v>259</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E61" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F61">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" t="s">
-        <v>276</v>
+      <c r="K61">
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5425,66 +5654,72 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F62">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="I62" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>281</v>
-      </c>
-      <c r="L62" t="s">
-        <v>282</v>
-      </c>
-      <c r="M62" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" t="s">
-        <v>284</v>
-      </c>
-      <c r="B63" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F63">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -5493,7 +5728,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5507,22 +5742,25 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -5531,16 +5769,16 @@
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>0</v>
+      <c r="K64" t="s">
+        <v>276</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5548,81 +5786,87 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="K65" t="s">
+        <v>281</v>
+      </c>
+      <c r="L65" t="s">
+        <v>282</v>
+      </c>
+      <c r="M65" t="s">
+        <v>283</v>
+      </c>
+      <c r="N65" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F66">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
-      <c r="K66" t="s">
-        <v>304</v>
+      <c r="K66">
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5630,40 +5874,43 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="F67">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c r="I67" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
-      <c r="K67" t="s">
-        <v>310</v>
+      <c r="K67">
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5671,81 +5918,87 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F68">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="I68" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="K68" t="s">
-        <v>317</v>
+      <c r="K68">
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F69">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
         <v>4</v>
       </c>
-      <c r="H69">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>302</v>
       </c>
       <c r="I69" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69">
-        <v>0</v>
+      <c r="K69" t="s">
+        <v>304</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5753,22 +6006,25 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F70">
         <v>28</v>
@@ -5777,121 +6033,130 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I70" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>328</v>
-      </c>
-      <c r="L70" t="s">
-        <v>329</v>
-      </c>
-      <c r="M70" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>310</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="F71">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="I71" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>335</v>
-      </c>
-      <c r="L71" t="s">
-        <v>336</v>
+        <v>317</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>318</v>
+      </c>
+      <c r="N71" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E72" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" t="s">
-        <v>342</v>
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72" t="s">
-        <v>344</v>
+      <c r="K72">
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E73" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F73">
         <v>28</v>
@@ -5900,335 +6165,359 @@
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="L73" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="M73" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>330</v>
+      </c>
+      <c r="N73" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E74" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="F74">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I74" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L74" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="M74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>337</v>
+      </c>
+      <c r="N74" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="F75">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="I75" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>345</v>
+      </c>
+      <c r="N75" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E76" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F76">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>367</v>
+        <v>242</v>
       </c>
       <c r="I76" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>368</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="L76" t="s">
+        <v>352</v>
       </c>
       <c r="M76" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>345</v>
+      </c>
+      <c r="N76" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
       <c r="E77" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>372</v>
+        <v>33</v>
       </c>
       <c r="I77" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="M77" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>357</v>
+      </c>
+      <c r="N77" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C78">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E78" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="F78">
         <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>378</v>
+        <v>242</v>
       </c>
       <c r="I78" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="M78" t="s">
+        <v>362</v>
+      </c>
+      <c r="N78" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B79" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C79">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E79" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="I79" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>369</v>
+      </c>
+      <c r="N79" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>388</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="I80" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="L80" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="M80" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>345</v>
+      </c>
+      <c r="N80" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E81" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="F81">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="I81" t="s">
         <v>201</v>
@@ -6237,121 +6526,130 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>397</v>
-      </c>
-      <c r="L81" t="s">
-        <v>345</v>
-      </c>
-      <c r="M81" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>379</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B82" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E82" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F82">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I82" t="s">
-        <v>201</v>
+        <v>343</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>397</v>
-      </c>
-      <c r="L82" t="s">
-        <v>403</v>
+        <v>385</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>386</v>
+      </c>
+      <c r="N82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F83">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>242</v>
       </c>
       <c r="I83" t="s">
-        <v>408</v>
+        <v>60</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="K83" t="s">
+        <v>390</v>
+      </c>
+      <c r="L83" t="s">
+        <v>391</v>
+      </c>
+      <c r="M83" t="s">
+        <v>392</v>
+      </c>
+      <c r="N83" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
         <v>394</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E84" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F84">
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>412</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
         <v>201</v>
@@ -6360,83 +6658,89 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="L84" t="s">
         <v>345</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="M84" t="s">
+        <v>398</v>
+      </c>
+      <c r="N84" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B85" t="s">
         <v>394</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>401</v>
       </c>
       <c r="F85">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="I85" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>416</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="L85" t="s">
+        <v>403</v>
       </c>
       <c r="M85" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>404</v>
+      </c>
+      <c r="N85" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B86" t="s">
         <v>394</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F86">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G86" t="s">
         <v>4</v>
       </c>
-      <c r="H86" t="s">
-        <v>421</v>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -6450,145 +6754,157 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B87" t="s">
         <v>394</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E87" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F87">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="I87" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>425</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
+        <v>413</v>
+      </c>
+      <c r="L87" t="s">
+        <v>345</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B88" t="s">
         <v>394</v>
       </c>
       <c r="C88">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>428</v>
+        <v>227</v>
       </c>
       <c r="F88">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G88" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I88" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
-      <c r="K88">
-        <v>0</v>
+      <c r="K88" t="s">
+        <v>416</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="M88" t="s">
+        <v>417</v>
+      </c>
+      <c r="N88" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s">
         <v>394</v>
       </c>
       <c r="C89">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E89" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F89">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="I89" t="s">
-        <v>201</v>
-      </c>
-      <c r="J89" t="s">
-        <v>434</v>
-      </c>
-      <c r="K89" t="s">
-        <v>435</v>
-      </c>
-      <c r="L89" t="s">
-        <v>436</v>
+        <v>350</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B90" t="s">
         <v>394</v>
       </c>
       <c r="C90">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F90">
         <v>27</v>
@@ -6597,16 +6913,16 @@
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>439</v>
+        <v>207</v>
       </c>
       <c r="I90" t="s">
-        <v>440</v>
+        <v>60</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="K90">
-        <v>0</v>
+      <c r="K90" t="s">
+        <v>425</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -6614,230 +6930,248 @@
       <c r="M90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="C91">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>427</v>
+      </c>
+      <c r="E91" t="s">
+        <v>428</v>
+      </c>
+      <c r="F91">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
         <v>4</v>
       </c>
-      <c r="D91" t="s">
-        <v>443</v>
-      </c>
-      <c r="E91" t="s">
-        <v>444</v>
-      </c>
-      <c r="F91">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="K91" t="s">
-        <v>445</v>
-      </c>
-      <c r="L91" t="s">
-        <v>446</v>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B92" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="E92" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="F92">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="I92" t="s">
-        <v>316</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="J92" t="s">
+        <v>434</v>
       </c>
       <c r="K92" t="s">
-        <v>452</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>435</v>
+      </c>
+      <c r="L92" t="s">
+        <v>436</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B93" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F93">
         <v>27</v>
       </c>
       <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>439</v>
+      </c>
+      <c r="I93" t="s">
+        <v>440</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>441</v>
+      </c>
+      <c r="B94" t="s">
+        <v>442</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>443</v>
+      </c>
+      <c r="E94" t="s">
+        <v>444</v>
+      </c>
+      <c r="F94">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
         <v>20</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H94" t="s">
         <v>133</v>
       </c>
-      <c r="I93" t="s">
-        <v>343</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="I94" t="s">
+        <v>174</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>445</v>
+      </c>
+      <c r="L94" t="s">
+        <v>446</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>447</v>
+      </c>
+      <c r="B95" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>449</v>
+      </c>
+      <c r="E95" t="s">
+        <v>450</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>451</v>
+      </c>
+      <c r="I95" t="s">
+        <v>316</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
         <v>452</v>
       </c>
-      <c r="L93" t="s">
-        <v>456</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" t="s">
-        <v>457</v>
-      </c>
-      <c r="B94" t="s">
-        <v>458</v>
-      </c>
-      <c r="C94">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>459</v>
-      </c>
-      <c r="E94" t="s">
-        <v>232</v>
-      </c>
-      <c r="F94">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" t="s">
-        <v>60</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>460</v>
-      </c>
-      <c r="L94" t="s">
-        <v>461</v>
-      </c>
-      <c r="M94" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" t="s">
-        <v>463</v>
-      </c>
-      <c r="B95" t="s">
-        <v>464</v>
-      </c>
-      <c r="C95">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>453</v>
+      </c>
+      <c r="N95" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>454</v>
+      </c>
+      <c r="B96" t="s">
+        <v>448</v>
+      </c>
+      <c r="C96">
         <v>10</v>
       </c>
-      <c r="D95" t="s">
-        <v>465</v>
-      </c>
-      <c r="E95" t="s">
-        <v>466</v>
-      </c>
-      <c r="F95">
-        <v>30</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s">
-        <v>133</v>
-      </c>
-      <c r="I95" t="s">
-        <v>350</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>467</v>
-      </c>
-      <c r="L95" t="s">
-        <v>468</v>
-      </c>
-      <c r="M95" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" t="s">
-        <v>470</v>
-      </c>
-      <c r="B96" t="s">
-        <v>471</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
       <c r="D96" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="E96" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="F96">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
@@ -6846,408 +7180,438 @@
         <v>133</v>
       </c>
       <c r="I96" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="L96" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B97" t="s">
+        <v>458</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>459</v>
+      </c>
+      <c r="E97" t="s">
+        <v>232</v>
+      </c>
+      <c r="F97">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>460</v>
+      </c>
+      <c r="L97" t="s">
+        <v>461</v>
+      </c>
+      <c r="M97" t="s">
+        <v>462</v>
+      </c>
+      <c r="N97" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>463</v>
+      </c>
+      <c r="B98" t="s">
+        <v>464</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>465</v>
+      </c>
+      <c r="E98" t="s">
+        <v>466</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>133</v>
+      </c>
+      <c r="I98" t="s">
+        <v>350</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>467</v>
+      </c>
+      <c r="L98" t="s">
+        <v>468</v>
+      </c>
+      <c r="M98" t="s">
+        <v>469</v>
+      </c>
+      <c r="N98" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>470</v>
+      </c>
+      <c r="B99" t="s">
         <v>471</v>
       </c>
-      <c r="C97">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>477</v>
-      </c>
-      <c r="E97" t="s">
-        <v>478</v>
-      </c>
-      <c r="F97">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>316</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" t="s">
-        <v>479</v>
-      </c>
-      <c r="B98" t="s">
-        <v>480</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>481</v>
-      </c>
-      <c r="E98" t="s">
-        <v>482</v>
-      </c>
-      <c r="F98">
-        <v>29</v>
-      </c>
-      <c r="G98" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" t="s">
-        <v>483</v>
-      </c>
-      <c r="I98" t="s">
-        <v>343</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98" t="s">
-        <v>484</v>
-      </c>
-      <c r="L98" t="s">
-        <v>485</v>
-      </c>
-      <c r="M98" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" t="s">
-        <v>487</v>
-      </c>
-      <c r="B99" t="s">
-        <v>480</v>
-      </c>
       <c r="C99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>472</v>
       </c>
       <c r="E99" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F99">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>490</v>
-      </c>
-      <c r="J99" t="s">
-        <v>491</v>
+        <v>316</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>492</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>474</v>
+      </c>
+      <c r="L99" t="s">
+        <v>475</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B100" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E100" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="F100">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G100" t="s">
         <v>20</v>
       </c>
-      <c r="H100" t="s">
-        <v>497</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100" t="s">
-        <v>498</v>
+      <c r="K100">
+        <v>0</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>479</v>
+      </c>
+      <c r="B101" t="s">
+        <v>480</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>481</v>
+      </c>
+      <c r="E101" t="s">
+        <v>482</v>
+      </c>
+      <c r="F101">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" t="s">
+        <v>483</v>
+      </c>
+      <c r="I101" t="s">
+        <v>343</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>484</v>
+      </c>
+      <c r="L101" t="s">
+        <v>485</v>
+      </c>
+      <c r="M101" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" t="s">
-        <v>499</v>
-      </c>
-      <c r="B101" t="s">
-        <v>500</v>
-      </c>
-      <c r="C101">
-        <v>5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>501</v>
-      </c>
-      <c r="E101" t="s">
-        <v>502</v>
-      </c>
-      <c r="F101">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s">
-        <v>133</v>
-      </c>
-      <c r="I101" t="s">
-        <v>316</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>503</v>
-      </c>
-      <c r="L101" t="s">
-        <v>504</v>
-      </c>
-      <c r="M101" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B102" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>508</v>
+        <v>286</v>
       </c>
       <c r="E102" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="F102">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
       </c>
       <c r="H102" t="s">
+        <v>489</v>
+      </c>
+      <c r="I102" t="s">
+        <v>490</v>
+      </c>
+      <c r="J102" t="s">
+        <v>491</v>
+      </c>
+      <c r="K102" t="s">
+        <v>492</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>493</v>
+      </c>
+      <c r="N102" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" t="s">
+        <v>480</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>495</v>
+      </c>
+      <c r="E103" t="s">
+        <v>496</v>
+      </c>
+      <c r="F103">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>497</v>
+      </c>
+      <c r="I103" t="s">
+        <v>201</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>498</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>486</v>
+      </c>
+      <c r="N103" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>499</v>
+      </c>
+      <c r="B104" t="s">
+        <v>500</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>501</v>
+      </c>
+      <c r="E104" t="s">
+        <v>502</v>
+      </c>
+      <c r="F104">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>133</v>
+      </c>
+      <c r="I104" t="s">
+        <v>316</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>503</v>
+      </c>
+      <c r="L104" t="s">
+        <v>504</v>
+      </c>
+      <c r="M104" t="s">
+        <v>505</v>
+      </c>
+      <c r="N104" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>506</v>
+      </c>
+      <c r="B105" t="s">
+        <v>507</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>508</v>
+      </c>
+      <c r="E105" t="s">
+        <v>509</v>
+      </c>
+      <c r="F105">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
         <v>510</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I105" t="s">
         <v>60</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" t="s">
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
         <v>511</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" t="s">
         <v>507</v>
       </c>
-      <c r="C103">
+      <c r="C106">
         <v>7</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D106" t="s">
         <v>512</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E106" t="s">
         <v>509</v>
       </c>
-      <c r="F103">
+      <c r="F106">
         <v>30</v>
-      </c>
-      <c r="G103" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" t="s">
-        <v>39</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>513</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" t="s">
-        <v>514</v>
-      </c>
-      <c r="B104" t="s">
-        <v>515</v>
-      </c>
-      <c r="C104">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>231</v>
-      </c>
-      <c r="E104" t="s">
-        <v>516</v>
-      </c>
-      <c r="F104">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" t="s">
-        <v>39</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104" t="s">
-        <v>517</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" t="s">
-        <v>519</v>
-      </c>
-      <c r="B105" t="s">
-        <v>520</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>521</v>
-      </c>
-      <c r="E105" t="s">
-        <v>522</v>
-      </c>
-      <c r="F105">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" t="s">
-        <v>343</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>523</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" t="s">
-        <v>524</v>
-      </c>
-      <c r="B106" t="s">
-        <v>520</v>
-      </c>
-      <c r="C106">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>525</v>
-      </c>
-      <c r="E106" t="s">
-        <v>526</v>
-      </c>
-      <c r="F106">
-        <v>28</v>
       </c>
       <c r="G106" t="s">
         <v>4</v>
@@ -7256,95 +7620,101 @@
         <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>527</v>
+        <v>39</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>528</v>
-      </c>
-      <c r="L106" t="s">
-        <v>529</v>
-      </c>
-      <c r="M106" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="B107" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>533</v>
+        <v>231</v>
       </c>
       <c r="E107" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F107">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G107" t="s">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>535</v>
+        <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>536</v>
-      </c>
-      <c r="L107" t="s">
-        <v>537</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>517</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>518</v>
+      </c>
+      <c r="N107" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B108" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="F108">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>541</v>
+        <v>343</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
-      <c r="K108">
-        <v>0</v>
+      <c r="K108" t="s">
+        <v>523</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -7352,25 +7722,28 @@
       <c r="M108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B109" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="E109" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="F109">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G109" t="s">
         <v>4</v>
@@ -7379,95 +7752,101 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>303</v>
-      </c>
-      <c r="J109" t="s">
-        <v>546</v>
+        <v>527</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>547</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>528</v>
+      </c>
+      <c r="L109" t="s">
+        <v>529</v>
+      </c>
+      <c r="M109" t="s">
+        <v>530</v>
+      </c>
+      <c r="N109" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B110" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E110" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F110">
         <v>30</v>
       </c>
       <c r="G110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" t="s">
+        <v>535</v>
+      </c>
+      <c r="I110" t="s">
+        <v>60</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>536</v>
+      </c>
+      <c r="L110" t="s">
+        <v>537</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>538</v>
+      </c>
+      <c r="B111" t="s">
+        <v>539</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>540</v>
+      </c>
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
         <v>20</v>
       </c>
-      <c r="H110" t="s">
-        <v>497</v>
-      </c>
-      <c r="I110" t="s">
-        <v>323</v>
-      </c>
-      <c r="J110" t="s">
-        <v>546</v>
-      </c>
-      <c r="K110" t="s">
-        <v>551</v>
-      </c>
-      <c r="L110" t="s">
-        <v>552</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" t="s">
-        <v>553</v>
-      </c>
-      <c r="B111" t="s">
-        <v>543</v>
-      </c>
-      <c r="C111">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>554</v>
-      </c>
-      <c r="E111" t="s">
-        <v>550</v>
-      </c>
-      <c r="F111">
-        <v>28</v>
-      </c>
-      <c r="G111" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
+      <c r="H111">
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>323</v>
+        <v>541</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111" t="s">
-        <v>551</v>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -7475,40 +7854,43 @@
       <c r="M111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B112" t="s">
         <v>543</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E112" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F112">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>558</v>
+        <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>323</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="J112" t="s">
+        <v>546</v>
+      </c>
+      <c r="K112" t="s">
+        <v>547</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -7516,72 +7898,78 @@
       <c r="M112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B113" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E113" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F113">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="I113" t="s">
         <v>323</v>
       </c>
-      <c r="J113">
-        <v>0</v>
+      <c r="J113" t="s">
+        <v>546</v>
       </c>
       <c r="K113" t="s">
-        <v>564</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>551</v>
+      </c>
+      <c r="L113" t="s">
+        <v>552</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B114" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="E114" t="s">
-        <v>232</v>
+        <v>550</v>
       </c>
       <c r="F114">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
         <v>323</v>
@@ -7590,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -7598,189 +7986,204 @@
       <c r="M114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B115" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="E115" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="F115">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G115" t="s">
         <v>4</v>
       </c>
       <c r="H115" t="s">
+        <v>558</v>
+      </c>
+      <c r="I115" t="s">
+        <v>323</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>559</v>
+      </c>
+      <c r="B116" t="s">
+        <v>560</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>561</v>
+      </c>
+      <c r="E116" t="s">
+        <v>562</v>
+      </c>
+      <c r="F116">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" t="s">
+        <v>563</v>
+      </c>
+      <c r="I116" t="s">
+        <v>323</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>564</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>565</v>
+      </c>
+      <c r="N116" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>566</v>
+      </c>
+      <c r="B117" t="s">
+        <v>567</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>568</v>
+      </c>
+      <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" t="s">
+        <v>569</v>
+      </c>
+      <c r="I117" t="s">
+        <v>323</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>570</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>571</v>
+      </c>
+      <c r="B118" t="s">
+        <v>572</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>573</v>
+      </c>
+      <c r="E118" t="s">
+        <v>574</v>
+      </c>
+      <c r="F118">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H118" t="s">
         <v>80</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I118" t="s">
         <v>350</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
         <v>575</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L118" t="s">
         <v>576</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M118" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" t="s">
+      <c r="N118" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
         <v>578</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
         <v>579</v>
-      </c>
-      <c r="C116">
-        <v>7</v>
-      </c>
-      <c r="D116" t="s">
-        <v>580</v>
-      </c>
-      <c r="E116" t="s">
-        <v>581</v>
-      </c>
-      <c r="F116">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" t="s">
-        <v>242</v>
-      </c>
-      <c r="I116" t="s">
-        <v>316</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>582</v>
-      </c>
-      <c r="L116" t="s">
-        <v>583</v>
-      </c>
-      <c r="M116" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" t="s">
-        <v>585</v>
-      </c>
-      <c r="B117" t="s">
-        <v>586</v>
-      </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>587</v>
-      </c>
-      <c r="E117" t="s">
-        <v>588</v>
-      </c>
-      <c r="F117">
-        <v>30</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" t="s">
-        <v>589</v>
-      </c>
-      <c r="I117" t="s">
-        <v>115</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>590</v>
-      </c>
-      <c r="L117" t="s">
-        <v>591</v>
-      </c>
-      <c r="M117" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" t="s">
-        <v>593</v>
-      </c>
-      <c r="B118" t="s">
-        <v>594</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>595</v>
-      </c>
-      <c r="E118" t="s">
-        <v>596</v>
-      </c>
-      <c r="F118">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" t="s">
-        <v>242</v>
-      </c>
-      <c r="I118" t="s">
-        <v>323</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" t="s">
-        <v>597</v>
-      </c>
-      <c r="B119" t="s">
-        <v>598</v>
       </c>
       <c r="C119">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E119" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="F119">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>20</v>
@@ -7789,80 +8192,86 @@
         <v>242</v>
       </c>
       <c r="I119" t="s">
-        <v>527</v>
+        <v>316</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="L119" t="s">
-        <v>602</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>583</v>
+      </c>
+      <c r="M119" t="s">
+        <v>584</v>
+      </c>
+      <c r="N119" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B120" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>41</v>
+        <v>587</v>
       </c>
       <c r="E120" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="F120">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>133</v>
+        <v>589</v>
       </c>
       <c r="I120" t="s">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L120" t="s">
-        <v>602</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>591</v>
+      </c>
+      <c r="M120" t="s">
+        <v>592</v>
+      </c>
+      <c r="N120" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B121" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="E121" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F121">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
@@ -7871,86 +8280,92 @@
         <v>242</v>
       </c>
       <c r="I121" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
-      <c r="K121" t="s">
-        <v>609</v>
-      </c>
-      <c r="L121" t="s">
-        <v>610</v>
-      </c>
-      <c r="M121" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B122" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E122" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="F122">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G122" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>615</v>
+        <v>242</v>
       </c>
       <c r="I122" t="s">
-        <v>316</v>
+        <v>527</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="L122" t="s">
-        <v>617</v>
-      </c>
-      <c r="M122" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>602</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B123" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>621</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="F123">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G123" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>623</v>
+        <v>133</v>
       </c>
       <c r="I123" t="s">
         <v>323</v>
@@ -7959,130 +8374,139 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>624</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
+        <v>601</v>
+      </c>
+      <c r="L123" t="s">
+        <v>602</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B124" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E124" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="F124">
         <v>26</v>
       </c>
       <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>242</v>
+      </c>
+      <c r="I124" t="s">
+        <v>174</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>609</v>
+      </c>
+      <c r="L124" t="s">
+        <v>610</v>
+      </c>
+      <c r="M124" t="s">
+        <v>283</v>
+      </c>
+      <c r="N124" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>611</v>
+      </c>
+      <c r="B125" t="s">
+        <v>612</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>613</v>
+      </c>
+      <c r="E125" t="s">
+        <v>614</v>
+      </c>
+      <c r="F125">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s">
         <v>4</v>
       </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" t="s">
-        <v>115</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124" t="s">
-        <v>629</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" t="s">
-        <v>631</v>
-      </c>
-      <c r="B125" t="s">
-        <v>632</v>
-      </c>
-      <c r="C125">
-        <v>5</v>
-      </c>
-      <c r="D125" t="s">
-        <v>633</v>
-      </c>
-      <c r="E125" t="s">
-        <v>634</v>
-      </c>
-      <c r="F125">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>615</v>
       </c>
       <c r="I125" t="s">
-        <v>635</v>
+        <v>316</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="K125" t="s">
+        <v>616</v>
+      </c>
+      <c r="L125" t="s">
+        <v>617</v>
+      </c>
+      <c r="M125" t="s">
+        <v>618</v>
+      </c>
+      <c r="N125" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="B126" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>621</v>
       </c>
       <c r="E126" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="F126">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>242</v>
+        <v>623</v>
       </c>
       <c r="I126" t="s">
-        <v>541</v>
+        <v>323</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
-      <c r="K126">
-        <v>0</v>
+      <c r="K126" t="s">
+        <v>624</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -8090,63 +8514,69 @@
       <c r="M126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B127" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="E127" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="F127">
         <v>26</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
-        <v>641</v>
+        <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>541</v>
+        <v>115</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>642</v>
-      </c>
-      <c r="L127" t="s">
-        <v>283</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>629</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>630</v>
+      </c>
+      <c r="N127" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B128" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C128">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>41</v>
+        <v>633</v>
       </c>
       <c r="E128" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F128">
         <v>26</v>
@@ -8155,189 +8585,382 @@
         <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I128" t="s">
-        <v>309</v>
+        <v>635</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128" t="s">
-        <v>646</v>
-      </c>
-      <c r="L128" t="s">
-        <v>647</v>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B129" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>650</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F129">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G129" t="s">
         <v>20</v>
       </c>
       <c r="H129" t="s">
+        <v>242</v>
+      </c>
+      <c r="I129" t="s">
+        <v>541</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>639</v>
+      </c>
+      <c r="B130" t="s">
+        <v>637</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>580</v>
+      </c>
+      <c r="E130" t="s">
+        <v>640</v>
+      </c>
+      <c r="F130">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="s">
+        <v>641</v>
+      </c>
+      <c r="I130" t="s">
+        <v>541</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>642</v>
+      </c>
+      <c r="L130" t="s">
+        <v>283</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>643</v>
+      </c>
+      <c r="B131" t="s">
+        <v>644</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131" t="s">
+        <v>645</v>
+      </c>
+      <c r="F131">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>242</v>
+      </c>
+      <c r="I131" t="s">
+        <v>309</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>646</v>
+      </c>
+      <c r="L131" t="s">
+        <v>647</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>648</v>
+      </c>
+      <c r="B132" t="s">
+        <v>649</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>650</v>
+      </c>
+      <c r="E132" t="s">
+        <v>651</v>
+      </c>
+      <c r="F132">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
         <v>33</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I132" t="s">
         <v>303</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129" t="s">
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
         <v>652</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L132" t="s">
         <v>653</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M132" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" t="s">
+      <c r="N132" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
         <v>655</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B133" t="s">
         <v>656</v>
       </c>
-      <c r="C130">
+      <c r="C133">
         <v>4</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D133" t="s">
         <v>657</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E133" t="s">
         <v>658</v>
       </c>
-      <c r="F130">
+      <c r="F133">
         <v>30</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G133" t="s">
         <v>4</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H133" t="s">
         <v>659</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I133" t="s">
         <v>316</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
         <v>660</v>
       </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" t="s">
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
         <v>661</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B134" t="s">
         <v>656</v>
       </c>
-      <c r="C131">
+      <c r="C134">
         <v>8</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D134" t="s">
         <v>180</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E134" t="s">
         <v>662</v>
       </c>
-      <c r="F131">
+      <c r="F134">
         <v>30</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G134" t="s">
         <v>4</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H134" t="s">
         <v>663</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I134" t="s">
         <v>316</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134" t="s">
         <v>664</v>
       </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" t="s">
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
         <v>665</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B135" t="s">
         <v>656</v>
       </c>
-      <c r="C132">
+      <c r="C135">
         <v>12</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>68</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E135" t="s">
         <v>666</v>
       </c>
-      <c r="F132">
+      <c r="F135">
         <v>22</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G135" t="s">
         <v>4</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H135" t="s">
         <v>439</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I135" t="s">
         <v>667</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
         <v>668</v>
       </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="13" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="nilton1hoyoajs1@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>